--- a/data/hotels_by_city/Dallas/Dallas_shard_404.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_404.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="451">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>pd762018</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>I really enjoyed the stay, our room was even ready early and we checked in at no charge which was very important to us when traveling for a short time. It was very convenient and was close to all our events.More</t>
   </si>
   <si>
+    <t>amymlong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r572323763-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Not only is this hotel new and beautifully decorated, it is absolutely the most comfortable nights stay I’ve had in a long time! The staff was very helpful and kind and the breakfast was great. I want to go back to Arlington just t have an excuse to stay here again!More</t>
   </si>
   <si>
+    <t>jdhilton3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r582914346-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>439rhondad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r582507855-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>One of my favorite hotels to stay at when I am working in the Arlington area. Rooms are very nice and the staff is great! They greeted me as I am came in and as I was leaving as well. Almost as good as being at home!</t>
   </si>
   <si>
+    <t>Jackie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r582088043-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>Housekeeping for us, was inconsistent, with a total of two visits out of six nights, which in my opinion is unacceptable. Furthermore, when housekeeping did service our room, bedding was never changed and beds were subsequently made in a haphazard manner, to which one of your female Front Desk employees saw with her own eyes as she came up to remove our trash herself because housekeeping neglected to remove the trash. We were also told by her, that the Manager would be contacting us that very day, which was last Thursday, May 17, to which we did not receive any communication from you at all. This is unacceptable. I have a photo of the way the beds were made on that second service day and it was horrible. I will not publish that photo on Expedia, or on my personal Blog, or share it via other social media outlets as it would pose great embarrassment to your establishment.Please rectify this inconvenience with a generic certificate for a stay at any Homewood Suites in the United States or Canada. If this does not happen, I will, as a Hilton Grand Vacation Club member, contact the appropriate personnel for resolution.More</t>
   </si>
   <si>
+    <t>llayne2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r567659503-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>Warren D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r556112242-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>The wedding party stayed here. Didn't have high expectations. The location is just south of the highway (I-20). Compliments to all for a wonderful night's stay! Entering the lobby gives you the impression that this is an upscale place. Artsy, elegant, classy! The rooms are spacious. Nice décor. Everything is new. This is well-worth the price. The room comfortably slept 3 (double-bed + couch-bed). Don't usually stay at this suites when I travel. Definitely made a positive impression. 5-stars!More</t>
   </si>
   <si>
+    <t>Kollidp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r555549704-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>Quality and service is excellent. just don't go in there for breakfast. there were varieties but no taste. Room service would go probably daily but need to request at reception for any refilling of toiletries.</t>
   </si>
   <si>
+    <t>Hope M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r555288036-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>My mother needed help with her luggage and the front desk gentlemen name Gant said he was busy and he could not leave the Front desk but on Sunday when we arrived back from the store this same gentlemen at 8:45pm was sitting in a lobby with a young lady watching TV  and he said he could not leave desk  on the  day before to help a 70 year old  senior citizen but I stayed in the business center to see how long he was going to stay away from the front desk and he stayed sitting in the lobby until 9:46pm the lady that came in to rlelieve him of his shift  was name Yolanda  for the next shift but he said he could not help a senior citizen with a luggage but he can sit down in the lobby and watch TV and talk.  I do not think the owners are paying him to sit down and watch TV and visit with a female. He said his manager told him not to leave the front desk. I work the hotel and I know when a guest needs assistance we have a sign that we put on the Front Desk that lets the guets know that we are assisting another guest and to dial 0 if you need immediately help. I do not know who taught  him not to help a senior citizens or any other guest that is...My mother needed help with her luggage and the front desk gentlemen name Gant said he was busy and he could not leave the Front desk but on Sunday when we arrived back from the store this same gentlemen at 8:45pm was sitting in a lobby with a young lady watching TV  and he said he could not leave desk  on the  day before to help a 70 year old  senior citizen but I stayed in the business center to see how long he was going to stay away from the front desk and he stayed sitting in the lobby until 9:46pm the lady that came in to rlelieve him of his shift  was name Yolanda  for the next shift but he said he could not help a senior citizen with a luggage but he can sit down in the lobby and watch TV and talk.  I do not think the owners are paying him to sit down and watch TV and visit with a female. He said his manager told him not to leave the front desk. I work the hotel and I know when a guest needs assistance we have a sign that we put on the Front Desk that lets the guets know that we are assisting another guest and to dial 0 if you need immediately help. I do not know who taught  him not to help a senior citizens or any other guest that is why you are in business without guest you will not have a paycheck. He needs to be taught on service  ALL GUEST are first priority no matter if they are employees they are paying for the room and the room is not free they are paying guest and that is why the owner is in business to take care the guest so that they will continue to recommend the HOTEL this was the  first time I had ever experience this service. WHEN I ARRIVED IT WAS A  VERY YOUNG LADY THERE  IN TRAINING SHE WAS VERY COURTEOUS AND POLITE. He was training her but in reality she needed to be training him she had warm Hilton smile and greeted me  when I  thats the 500 feet rule enter the hotel And also it was african male that worked the overnight shift on the weekend he was very pleasant and helpful he left the front desk to come and even assist my mother with a phone charger for her phone my mother said taht young man  is nice but the other young man was not friendly at all. It was very disappointing because I had told my mother that Hilton have outstanding customer service and a great place to work . My mother is from Louisiana and she was not  use to this type of service.  That  other young man just hanging  out in the lobby with friend but I know the owner of this Hotel is not aware of this if the General Manager allows this did she needs to be replace also because I am a diamond member Itravel alot and I also recommend this Hilton to my colleagues  and a school Teacher and I never seen this type of cutomer service. One employee can assiste guest but he said he can not. I would recommend someone to start reviewing the tapes at night to see what the employee are doing because this not good service at all and this is not what Hilton practices he needs more GUEST training or not work at the front desk maybe in the back areas somewhere you have to friendly and outgoing to be a front desk agent  he did not do any of Hilton rules  500 feet eye contact and greet he needs to be tarin properly  to assist all Guest they are all paying guest . ESPECIALLY TEH SENIOR CITIZENS AND TEH DISABLED GUESTS. WE DO SELL HANDICAP ROOMS I THINK HE IS AWARE OF THAT AS A FRONT DESK AGENT YOU HAVE TO BE WILLING TO WEAR MANY DIFFERENT HATS NIT JUST STAY THERE AND SIT AND LOBBY WATCH TV . I HOPE MY NEXT VISIT WILL BE BETTER IN TEH FUTURE!! I WANT STOP STAYING AT HOMEWOOD BECAUSE HE IS NOT THE OWNER OF THE HOTEL AND THE OWNER DO NOT KNOW ABOUT THIS SERVICE BUT HOPEFUL THE GENERAL MANGER WILL BE PROACTIVE AND TEACH HIM TO HELP ALL GUEST THAT MAY NEED HELP. THATS IS THE HILTON WAY! THIS HOTEL BRAND IS HILTON ! LEARN HILTON BRAND TOWARD ALL GUEST!!More</t>
   </si>
   <si>
+    <t>FawziaEssa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r555258906-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>231feliciah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r549886058-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>nu_me06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r549622094-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>bamacouple9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r547679106-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -414,6 +453,9 @@
     <t>I stayed here the week of Dec 11, 2017.  The rooms was nice.  The hotel was nice.  I had turned in a tax exempt form for my stay.  When I checked out I was charged state taxes.  The manager was there and assured me it would be corrected.  3 days later and 4 phone calls later, I finally contacted the Hilton Diamond desk and they were able to resolve it.  Thank you for fixing it Marlo.</t>
   </si>
   <si>
+    <t>brandona567</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r547607161-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -429,6 +471,9 @@
     <t>Staff was friendly and hotel seemed like a nice place to stay - kitchenette and wired internet looked great. However, the hotel has a mold problem. Lobby had a smell to it and so did the room. My body is hyper-sensitive to it and I could feel it within 10 minutes. Had to check out and stay across the street at Hampton. They kindly refunded the money.</t>
   </si>
   <si>
+    <t>Michael O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r545888406-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -444,6 +489,9 @@
     <t>Elana and her staff are the best. They made our stay for 3 nights feel like we were at home. Loved every minute of our stay and will go back next year for another game. Breakfast was ok the pool was great the room was clean. Everything you could ask for when away from home.</t>
   </si>
   <si>
+    <t>Eboni Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r545628609-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -462,12 +510,18 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>josephwX4793ZX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r545686196-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
     <t>545686196</t>
   </si>
   <si>
+    <t>barbaradJ3947HA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r543699052-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -483,6 +537,9 @@
     <t xml:space="preserve">Hotel charged a higher rate than booking. Staff wasn't friendly and breakfast wasn't good.i spoke with the manager she wasn't professional at all and didn't handle the problem. I had to call customer care for the problem to be solved. </t>
   </si>
   <si>
+    <t>N2084ZJrebeccac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r537619096-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -501,6 +558,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Chelsea C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r535655735-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -516,6 +576,9 @@
     <t>This hotel is fairly new and very clean.  The staff was friendly and helpful.  The fitness center is large.  The happy hour wine was actually pretty good.  The decor in the lobby is unique.  I would definitely recommend this hotel.</t>
   </si>
   <si>
+    <t>NashvilleStan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r532276309-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -531,6 +594,9 @@
     <t xml:space="preserve">This property is about one-year-old but they maintain it very well. I thought it was a lot newer than that. Hotel staff is very accommodating, rooms are exceptionally clean with lots of amenities. Staff seems to care about the quality of the food they put out. Breakfast has a nice selection and the evening receptions have a good taste and nice quality. </t>
   </si>
   <si>
+    <t>Pat M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r529740100-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -549,6 +615,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Jennifer M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r528849938-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -567,6 +636,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>P1856CD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r528591930-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -582,6 +654,9 @@
     <t xml:space="preserve">Excellent value, close to everything I wanted to see. Staff was friendly and extra helpful. Morning staff for breakfast was extra friendly; checkout was a breeze and very attentive. I will be back here for my next trip to San Antonio. </t>
   </si>
   <si>
+    <t>michellebJ1456DT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r528383508-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -597,6 +672,9 @@
     <t>Great experience!! Loved everything about this hotel! My two night stay was wonderful. From the time we arrived to the time we departed was nothing buy excellent service. I would recommend this hotel to anyone!!</t>
   </si>
   <si>
+    <t>josephhG2621EF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r527972545-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -624,6 +702,9 @@
     <t>This hotel was very nice.  Hotel staff was great and it was clean and nice.  Business travel alone felt very safe.  The rooms felt new and for the most part made the trip nicer.  The complimentary happy hour was lovely.</t>
   </si>
   <si>
+    <t>Kelly R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r526406578-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -639,6 +720,9 @@
     <t xml:space="preserve">I have been staying here on and off for about 6 weeks. The staff is just the best. They have been so kind and accommodating to me.  They truly take care of you.  The rooms are fantastic and clean! The beds are very comfortable. The hotel is new and in great condition. They have a gorgeous pool and reception area. I can't  recommend this hotel enough to anyone looking to  staying in the Arlington area!  It is close to everything! It is extremely close to many restaurants, highway access, AT&amp;T Stadium, and Six Flags. </t>
   </si>
   <si>
+    <t>sknapp186</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r524226802-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -654,6 +738,9 @@
     <t>Had issues with the bathroom and was told it was my fault when I hadn't even been in the room. Left toilet water all over the bathroom floor after trying to correct the problem, but was unsuccessful..</t>
   </si>
   <si>
+    <t>janetcT1295AI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r524268846-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -666,6 +753,9 @@
     <t>I was in town for the Dallas Cowboys game. The hotel was close and newly built. Everything in the hotel was clean and the staff was very friendly. I will definitely stay here again on my next trip to Dallas, TX</t>
   </si>
   <si>
+    <t>gatorcindy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r520771854-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -684,6 +774,9 @@
     <t>I love this chain.  The suite rooms are always very comfortable and they have a full kitchen.  This hotel in particular is very new as it opened in December.  Very clean and comfortable and quiet.  Perfect except please go out for breakfast.  It is the WORST breakfast that I have ever had at a Hilton or Holiday Inn property. Homewood usually has fresh cut fruit that I look forward to here it was just a whole orange.  That tells me that management doesn't want you to eat fruit.  No one is going to eat that as it is messy.  They usually also have oatmeal with great toppings like walnuts and dried fruit.  This hotel had something resembling hominy that was watery.  It was simply unedible!  Homewood usually has danish or muffins.  The had dry regular bread or dry bagels only and no fat free yogurt.  The eggs were instant and horrible and the potatoes were unidentifiable.  Management get with Homewood protocol and fix this soon.  You would be a 5 with the normal breakfast.More</t>
   </si>
   <si>
+    <t>L4040CLmonicaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r520731849-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -714,6 +807,9 @@
     <t xml:space="preserve">Hotel was clean and nice. Rooms were spacious and comfortable. Staff was friendly and check in was quick &amp; efficient. Breakfast, however, was a disappointment. Eggs were weird, only one waffle maker created a line and congested the area, and staff seemed to struggle keeping things stocked. Didn't seem too busy. Overall though, I would recommend this hotel for comfort and quality. </t>
   </si>
   <si>
+    <t>L1637MLdanielb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r517661327-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -732,6 +828,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Maribel A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r516425245-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -747,6 +846,9 @@
     <t xml:space="preserve">This is a great property with an unbeatable price. The rooms are super clean and the staff very friendly and profesional. It is close to the baseball park and to six flags as well, not to mention the Dallas Cowboys stadium. </t>
   </si>
   <si>
+    <t>dianefL8917JD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r505344618-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -765,6 +867,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Fred M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r504938324-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -780,6 +885,9 @@
     <t xml:space="preserve">Very enjoyable business trip. Staff went out of there to make the stay enjoyable. Breakfast was hot and waffles were very good. Coffee was good and always available. Fresh fruit was provided at every breakfast. </t>
   </si>
   <si>
+    <t>danielr8374</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r501312441-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -810,6 +918,9 @@
     <t>The staff is very helpful and friendly.   The rooms at this facility are very clean and kept up by the housekeeping staff.   Staff at this hotel is willing to always help if you ask questions on anything you may need.   The facility is kept very clean both inside and out that you won't be disappointed.  It is also close to several great placed to eat and shop.</t>
   </si>
   <si>
+    <t>U2772BSmarthah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r498443757-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -840,6 +951,9 @@
     <t>Not a good experience and I am a Diamond and wanted to like this new hotel. But the food and choices was not just awful but could not even be considered edible. This hotel needs some help and better management.</t>
   </si>
   <si>
+    <t>texasdonnie01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r496335722-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -855,6 +969,9 @@
     <t>Hilton Honors guest are met with very personable and professional welcome. Please do make sure you use the app to pick your room ahead of arrival and get your digital key loaded on your Hilton app. Accommodations are great and staff are extremely friendly and helpful!</t>
   </si>
   <si>
+    <t>kennethhY9080FH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r496141110-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -867,6 +984,9 @@
     <t xml:space="preserve">The hotel is centrally located to shopping and restaurants. Easy access to Globe Life Park, AT&amp;T Stadium, and Six Flags. The hotel staff were pleasant and accommodating. When our family arrived, the pool was closed. That was disappointing since it was hot and we looked forward to a pool. The reason given was they had not paid the permit to the city and were closed down. That was quickly resolved when we began asking questions. </t>
   </si>
   <si>
+    <t>Debbie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r495991069-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -882,6 +1002,9 @@
     <t>A great value and location , the amenities and proximity to other areas in which others desire are within reach which includes shopping, restaurants, the rangers ball park, six flags and of course the cowboys stadium. It depends on how far are people willing to travel for a hotel depending on the reason for being in the area.</t>
   </si>
   <si>
+    <t>OKCtravelwithme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r495654123-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1053,9 @@
     <t>The front desk staff was above and beyond friendly and accommodating. Our room had a few issues (toilet kept running/handle was broken), one of the towels was dirty, and there weren't sheets in the room or on the pull-out bed. We were there for the 5pm social and it was decent. We didn't use the pool, but it seemed fine. Our wifi worked great, and like I said, the reception staff was very kind and helpful.More</t>
   </si>
   <si>
+    <t>ladidj2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r475766065-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1074,9 @@
     <t>The Assistant General Manager Dana was not considered with my complaint that the two rooms that I booked were on two different floors and she was not willing to accommodate us.  I contacted the General Manager David and he was not able to change our rooms.More</t>
   </si>
   <si>
+    <t>86christinh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r474370284-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -967,6 +1096,9 @@
   </si>
   <si>
     <t>Was really impressed. Stayed for a shrt six flags trip for my kids. Decor was wonderful. Room was clean and well kept, very modern. Breakfast was sizeable and my kids were happy with the choices. Rate was reasonale.More</t>
+  </si>
+  <si>
+    <t>AllenatHome1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r473701680-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -1007,6 +1139,9 @@
     <t>We stayed here the week of March 27, 2017.  The suites are well equipped and spacious.While we were at the hotel a storm front passed through resulting in tornados and power outages.  The hotel lost power for a few hours March 28th, but was restored before 9 am.  When I asked the front desk if breakfast would be served, they first said that it would not, but eventually decided to provide some breakfast items.  The hotel is relatively new and is very nicely appointed.  Kudos to the staff for providing breakfast when they could have taken the easy road and not provided anything.More</t>
   </si>
   <si>
+    <t>ReneeW4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r469737437-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1025,6 +1160,9 @@
     <t>This is a beautiful new hotel, but still has kinks to work out.  We stayed over spring break week.  We were supposed to have a 500 sq. foot king suite with separate bedroom, but were given a very small studio suite, and front desk said there was nothing they could do to change room since we booked with Hotels.com.  When we came during the scheduled time for breakfast the next morning (really?  ending at 9:00 am during spring break?), they were out of almost everything, and what they had they didn't have plates, cups or utensils for.  Guests were rummaging through the breakfast areas to help themselves find plates, etc.  There were a lot of hungry and disappointed guests. Manager came out and apologized, but did nothing to help, and only gave excuses before heading back to his office.  The lobby men's room bathroom sinks didn't work.  Hopefully the kitchen staff wash their hands in the kitchen.More</t>
   </si>
   <si>
+    <t>Kcooks25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r469387878-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1043,6 +1181,9 @@
     <t>My family and I arrived at the hotel at 2:59pm we were promptly greeted and assigned our room.  We went down for dinner at about 5:20p.m. and Ross had cooked the most amazing pot roast I have ever had.  It was so good it was all gone by 5:40pm!  The room was nice and clean and the staff was very friendly!  I met a nice gentlemen name Mario who was a true professional!  We will definitely stay here again.More</t>
   </si>
   <si>
+    <t>violetg375</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r468938678-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1067,6 +1208,9 @@
     <t>We constantly travel and this has been the most amazing stay yet! Friendly staff, amazing accommodations, absolutely awesome breakfast and extremely clean. Makes the stay just that much more memorableMore</t>
   </si>
   <si>
+    <t>TampaTrips</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r467939627-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1088,6 +1232,9 @@
     <t>Drive up to a huge parking lot with plenty of space and a brand new hotel conveniently just off the interstate.  Its super nice!  As you go to the front desk the staff is incredibly friendly and helpful.  They really went out of their way to welcome us.  Our room was beautiful and spacious!  So clean and fresh. Very comfortable beds, open sitting room and nice kitchen for relaxing in the room.  The rooms were very quiet despite the proximity of the interstate and the access to Arlington, Dallas, Ft. Worth, Grand Prairie local shops, restaurants and businesses was fantastic!During the week, they have a fantastic hors d'oeuvres / heavy appetizer spread that can serve as a snack or dinner.  The hotel serves wine and beer with tapas. After a long day working or running around, it can make your night!  Free full breakfast in the morning puts everyone in a better mood!!This relaxing hotel was so nice I just wish we could have stayed longer!More</t>
   </si>
   <si>
+    <t>Michelle H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r465658991-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1109,6 +1256,9 @@
     <t>Awesome location and property. New and large rooms. Beds are very comfortable. Breakfast and coffee was tasty. The decor is really nice. There was a graduation party held and we'll controlled.  Great hotel.More</t>
   </si>
   <si>
+    <t>sandybrown1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r465393864-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1127,6 +1277,9 @@
     <t>Great hotel!!  Very friendly staff.  Easy access to highways, shops and restaurants! The breakfast was great.  The noise level was high because it was many kids there! The bathroom is big and I love the kitchen area!More</t>
   </si>
   <si>
+    <t>Esteban B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r465205006-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1148,6 +1301,9 @@
     <t>This hotel is absolutely incredible. The rooms are huge, comfortable and extremely clean. We loved the service, the comfortable beds, the staff and I really enjoyed the putting green in the back. If you are coming to Arlington Texas for either business or pleasure you need to stay here. It has immediate access to the interstate with a quick drive to DFW airport, minutes away from downtown Arlington or Fort Worth. The Dallas Cowboys, Texas Rangers and Convention Center are literally less than 10 minutes. Highly recommend it!More</t>
   </si>
   <si>
+    <t>richardgjrm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r464591060-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1172,6 +1328,9 @@
     <t>Best place i ever stayed staff was excellent and looked like they enjoyed working there enjoyed the free meals never have i stayed in a place that offers free dinner and free beer and wine me and my family will definitely stay here again More</t>
   </si>
   <si>
+    <t>cmrud81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r462195319-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1194,6 +1353,9 @@
   </si>
   <si>
     <t>It is clean, fresh and new. My room was modern with comfortable furniture. The fitness center is very nice. It is has plenty of space and equipment. The tv screens on the cardio equipment works well and had a nice clean picture. The area around the hotel is still has a lot of construction going on. Because of this there is not a lot of stuff extremely close by. Once the construction is complete it will improve the entire experience. More</t>
+  </si>
+  <si>
+    <t>regarrelsmith</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d10628351-r462392657-Homewood_Suites_by_Hilton_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -1713,43 +1875,47 @@
       <c r="A2" t="n">
         <v>64978</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>157021</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1771,56 +1937,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64978</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>157022</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1832,56 +2002,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64978</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>157023</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1905,50 +2079,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64978</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>157024</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
-        <v>71</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1972,50 +2150,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64978</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>29129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2039,50 +2221,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64978</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>157025</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2106,50 +2292,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64978</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>157026</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2171,56 +2361,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64978</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>157027</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2244,50 +2438,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64978</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>1674</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2307,50 +2505,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64978</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>140557</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2370,50 +2572,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64978</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>125868</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2437,50 +2643,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64978</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>157028</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2504,50 +2714,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64978</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>157029</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2567,50 +2781,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64978</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>157030</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2630,50 +2848,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64978</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>2286</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O16" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2697,50 +2919,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64978</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>157031</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2764,32 +2990,36 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64978</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>157032</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s"/>
       <c r="K18" t="s"/>
@@ -2806,51 +3036,52 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64978</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>157033</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -2874,50 +3105,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64978</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>157034</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2941,50 +3176,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64978</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>20931</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3008,50 +3247,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64978</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>157035</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3065,50 +3308,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64978</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>10837</v>
+      </c>
+      <c r="C23" t="s">
+        <v>192</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3132,50 +3379,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64978</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>1363</v>
+      </c>
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3189,50 +3440,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64978</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>157036</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="O25" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3256,50 +3511,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64978</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>157037</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="O26" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3323,50 +3582,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64978</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>157038</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3390,7 +3653,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28">
@@ -3403,37 +3666,37 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" t="s">
+        <v>227</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>198</v>
       </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J28" t="s">
-        <v>195</v>
-      </c>
-      <c r="K28" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" t="s">
-        <v>201</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>176</v>
-      </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3457,41 +3720,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64978</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>348</v>
+      </c>
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="J29" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
@@ -3510,50 +3777,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64978</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>157039</v>
+      </c>
+      <c r="C30" t="s">
+        <v>234</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="J30" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="K30" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="L30" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3577,50 +3848,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64978</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>157040</v>
+      </c>
+      <c r="C31" t="s">
+        <v>240</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="J31" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3644,41 +3919,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64978</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>157041</v>
+      </c>
+      <c r="C32" t="s">
+        <v>245</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J32" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
@@ -3697,50 +3976,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64978</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>157042</v>
+      </c>
+      <c r="C33" t="s">
+        <v>252</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="J33" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="K33" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="O33" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3764,7 +4047,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34">
@@ -3777,37 +4060,37 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="J34" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="K34" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3831,50 +4114,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64978</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>157043</v>
+      </c>
+      <c r="C35" t="s">
+        <v>263</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="J35" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="K35" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3898,50 +4185,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64978</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>157044</v>
+      </c>
+      <c r="C36" t="s">
+        <v>270</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="J36" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="K36" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3965,50 +4256,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64978</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>157045</v>
+      </c>
+      <c r="C37" t="s">
+        <v>276</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="J37" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="K37" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4032,50 +4327,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64978</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>15726</v>
+      </c>
+      <c r="C38" t="s">
+        <v>283</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="J38" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="K38" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="L38" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4099,50 +4398,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64978</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>157046</v>
+      </c>
+      <c r="C39" t="s">
+        <v>289</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="J39" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="K39" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="L39" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4166,7 +4469,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40">
@@ -4179,37 +4482,37 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="J40" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="K40" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="L40" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O40" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4233,50 +4536,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64978</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>157047</v>
+      </c>
+      <c r="C41" t="s">
+        <v>300</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="J41" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="K41" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="L41" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4300,7 +4607,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42">
@@ -4313,37 +4620,37 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="J42" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="K42" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="L42" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4367,50 +4674,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64978</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>157048</v>
+      </c>
+      <c r="C43" t="s">
+        <v>311</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="J43" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="K43" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="L43" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4434,50 +4745,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64978</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>157049</v>
+      </c>
+      <c r="C44" t="s">
+        <v>317</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="J44" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="K44" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4501,50 +4816,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64978</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>4976</v>
+      </c>
+      <c r="C45" t="s">
+        <v>322</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="J45" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="K45" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="L45" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="O45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4568,50 +4887,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64978</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>11661</v>
+      </c>
+      <c r="C46" t="s">
+        <v>328</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="J46" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="K46" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="O46" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4631,7 +4954,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47">
@@ -4644,37 +4967,37 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="J47" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="K47" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4692,56 +5015,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X47" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y47" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64978</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>157050</v>
+      </c>
+      <c r="C48" t="s">
+        <v>345</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="J48" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="K48" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="O48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4763,56 +5090,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X48" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y48" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64978</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>157051</v>
+      </c>
+      <c r="C49" t="s">
+        <v>352</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="J49" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="K49" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="L49" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4824,56 +5155,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X49" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y49" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64978</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>157052</v>
+      </c>
+      <c r="C50" t="s">
+        <v>360</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="J50" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="K50" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -4889,13 +5224,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X50" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y50" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51">
@@ -4908,37 +5243,37 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="J51" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="K51" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="L51" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -4954,56 +5289,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X51" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y51" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64978</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>157053</v>
+      </c>
+      <c r="C52" t="s">
+        <v>373</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="J52" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="K52" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="L52" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5019,56 +5358,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X52" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y52" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64978</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>132864</v>
+      </c>
+      <c r="C53" t="s">
+        <v>380</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="J53" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="K53" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="L53" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5086,56 +5429,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X53" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y53" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64978</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>157054</v>
+      </c>
+      <c r="C54" t="s">
+        <v>387</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="J54" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="K54" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5157,56 +5504,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="X54" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="Y54" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64978</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>69598</v>
+      </c>
+      <c r="C55" t="s">
+        <v>396</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="J55" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="K55" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="L55" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5224,56 +5575,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="X55" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="Y55" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>64978</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>6628</v>
+      </c>
+      <c r="C56" t="s">
+        <v>404</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="J56" t="s">
+        <v>407</v>
+      </c>
+      <c r="K56" t="s">
+        <v>216</v>
+      </c>
+      <c r="L56" t="s">
+        <v>408</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
         <v>358</v>
       </c>
-      <c r="K56" t="s">
-        <v>191</v>
-      </c>
-      <c r="L56" t="s">
-        <v>359</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5</v>
-      </c>
-      <c r="N56" t="s">
-        <v>315</v>
-      </c>
       <c r="O56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5295,56 +5650,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="X56" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="Y56" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64978</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>122147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>412</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="J57" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="K57" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="L57" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5360,56 +5719,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="X57" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="Y57" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>64978</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>157055</v>
+      </c>
+      <c r="C58" t="s">
+        <v>419</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="J58" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="K58" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="L58" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="O58" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -5427,56 +5790,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="X58" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="Y58" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64978</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>157056</v>
+      </c>
+      <c r="C59" t="s">
+        <v>427</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="J59" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="K59" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="L59" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5498,56 +5865,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="X59" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="Y59" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64978</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>157057</v>
+      </c>
+      <c r="C60" t="s">
+        <v>436</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="J60" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="K60" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="L60" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5559,56 +5930,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="X60" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="Y60" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>64978</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>157058</v>
+      </c>
+      <c r="C61" t="s">
+        <v>445</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="J61" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="K61" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="L61" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O61" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5630,13 +6005,13 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="X61" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="Y61" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
